--- a/chatbot/cb_engine/train_tools/qna/answer.xlsx
+++ b/chatbot/cb_engine/train_tools/qna/answer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Desktop\project\chat-bot\cb_engine\train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Desktop\bagcation\chatbot\cb_engine\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{B_LC} 맛집 목록입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{B_LC} 숙박시설 목록입니다. 호텔목록은 아래 사이트에서 확인해주세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.google.com/travel/search?q={B_LC}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -125,6 +117,12 @@
   <si>
     <t>답변 url</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_LC} 숙박시설 랜덤목록 3개 입니다. 호텔목록은 아래 사이트에서 확인해주세요.</t>
+  </si>
+  <si>
+    <t>{B_LC} 맛집 랜덤목록 3개 입니다.</t>
   </si>
 </sst>
 </file>
@@ -506,7 +504,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -546,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -560,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -571,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="69" x14ac:dyDescent="0.3">
@@ -588,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -599,13 +597,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -616,21 +614,21 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
